--- a/resources/table/enum.map.xlsx
+++ b/resources/table/enum.map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA342778-1398-4EA1-B74D-8F34218E00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E07A1-08DF-4D2C-B8CC-4B2BAEDDB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP_EFFECT_TYPE" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>0x02</t>
   </si>
   <si>
-    <t>NO_OPTION</t>
-  </si>
-  <si>
     <t>BUILD_IN</t>
   </si>
   <si>
@@ -83,6 +80,10 @@
   </si>
   <si>
     <t>0x30</t>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,9 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEE7C70-7532-403D-8FCB-E2C096E06F8A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -537,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -545,7 +544,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -553,7 +552,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -561,42 +560,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/resources/table/enum.map.xlsx
+++ b/resources/table/enum.map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E07A1-08DF-4D2C-B8CC-4B2BAEDDB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3328E0-0A5F-4D48-A237-AF8E58DD0BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>DISABLE_WHISPER</t>
   </si>
   <si>
-    <t>DISABLE_MAGIC</t>
-  </si>
-  <si>
     <t>HUNTING_GROUND</t>
   </si>
   <si>
@@ -83,6 +80,10 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISABLE_SPELL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEE7C70-7532-403D-8FCB-E2C096E06F8A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -536,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -563,39 +566,39 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
